--- a/Employee_Reports35/Edgar Noceja Q0235.xlsx
+++ b/Employee_Reports35/Edgar Noceja Q0235.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1513,11 +1513,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
@@ -1648,11 +1648,11 @@
         </is>
       </c>
       <c r="H25" s="5" t="n">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="5" t="inlineStr">
@@ -1697,11 +1697,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1746,11 +1746,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1795,11 +1795,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1832,11 +1832,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1881,11 +1881,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1930,11 +1930,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2028,11 +2028,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2126,11 +2126,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2212,11 +2212,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">

--- a/Employee_Reports35/Edgar Noceja Q0235.xlsx
+++ b/Employee_Reports35/Edgar Noceja Q0235.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1513,11 +1513,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-84</v>
+        <v>-85</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
@@ -1648,11 +1648,11 @@
         </is>
       </c>
       <c r="H25" s="5" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="5" t="inlineStr">
@@ -1697,11 +1697,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1746,11 +1746,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1795,11 +1795,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1832,11 +1832,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1881,11 +1881,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1930,11 +1930,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2028,11 +2028,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2126,11 +2126,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2212,11 +2212,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
